--- a/Fish IDs/NAR.xlsx
+++ b/Fish IDs/NAR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_29B382B5951882A9D5CB6A89148519133817EAB1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AE12C14D-C229-4FF5-97C1-054F656B5A34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD1C4FD-9401-4F4F-AA31-0401508A0138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="897">
   <si>
     <t>fishid</t>
   </si>
@@ -920,16 +920,1825 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>NAR031620001</t>
+  </si>
+  <si>
+    <t>NAR031620002</t>
+  </si>
+  <si>
+    <t>NAR031620003</t>
+  </si>
+  <si>
+    <t>NAR031620004</t>
+  </si>
+  <si>
+    <t>NAR031620005</t>
+  </si>
+  <si>
+    <t>NAR031620006</t>
+  </si>
+  <si>
+    <t>NAR031620007</t>
+  </si>
+  <si>
+    <t>NAR031620008</t>
+  </si>
+  <si>
+    <t>NAR031620009</t>
+  </si>
+  <si>
+    <t>NAR031620010</t>
+  </si>
+  <si>
+    <t>NAR031620011</t>
+  </si>
+  <si>
+    <t>NAR031620012</t>
+  </si>
+  <si>
+    <t>NAR031620013</t>
+  </si>
+  <si>
+    <t>NAR031620014</t>
+  </si>
+  <si>
+    <t>NAR031620015</t>
+  </si>
+  <si>
+    <t>NAR031620016</t>
+  </si>
+  <si>
+    <t>NAR031620017</t>
+  </si>
+  <si>
+    <t>NAR031620018</t>
+  </si>
+  <si>
+    <t>NAR031620019</t>
+  </si>
+  <si>
+    <t>NAR031620020</t>
+  </si>
+  <si>
+    <t>NAR031620021</t>
+  </si>
+  <si>
+    <t>NAR031620022</t>
+  </si>
+  <si>
+    <t>NAR031620023</t>
+  </si>
+  <si>
+    <t>NAR031620024</t>
+  </si>
+  <si>
+    <t>NAR031620025</t>
+  </si>
+  <si>
+    <t>NAR031620026</t>
+  </si>
+  <si>
+    <t>NAR031620027</t>
+  </si>
+  <si>
+    <t>NAR031620028</t>
+  </si>
+  <si>
+    <t>NAR031620029</t>
+  </si>
+  <si>
+    <t>NAR031620030</t>
+  </si>
+  <si>
+    <t>NAR031620031</t>
+  </si>
+  <si>
+    <t>NAR031620032</t>
+  </si>
+  <si>
+    <t>NAR031620033</t>
+  </si>
+  <si>
+    <t>NAR031620034</t>
+  </si>
+  <si>
+    <t>NAR031620035</t>
+  </si>
+  <si>
+    <t>NAR031620036</t>
+  </si>
+  <si>
+    <t>NAR031620037</t>
+  </si>
+  <si>
+    <t>NAR031620038</t>
+  </si>
+  <si>
+    <t>NAR031620039</t>
+  </si>
+  <si>
+    <t>NAR031620040</t>
+  </si>
+  <si>
+    <t>NAR031620041</t>
+  </si>
+  <si>
+    <t>NAR031620042</t>
+  </si>
+  <si>
+    <t>NAR031620043</t>
+  </si>
+  <si>
+    <t>NAR031620044</t>
+  </si>
+  <si>
+    <t>NAR031620045</t>
+  </si>
+  <si>
+    <t>NAR031620046</t>
+  </si>
+  <si>
+    <t>NAR031620047</t>
+  </si>
+  <si>
+    <t>NAR031620048</t>
+  </si>
+  <si>
+    <t>NAR031620049</t>
+  </si>
+  <si>
+    <t>NAR031620050</t>
+  </si>
+  <si>
+    <t>NAR031720001</t>
+  </si>
+  <si>
+    <t>NAR031720002</t>
+  </si>
+  <si>
+    <t>NAR031720003</t>
+  </si>
+  <si>
+    <t>NAR031720004</t>
+  </si>
+  <si>
+    <t>NAR031720005</t>
+  </si>
+  <si>
+    <t>NAR031720006</t>
+  </si>
+  <si>
+    <t>NAR031720007</t>
+  </si>
+  <si>
+    <t>NAR031720008</t>
+  </si>
+  <si>
+    <t>NAR031720009</t>
+  </si>
+  <si>
+    <t>NAR031720010</t>
+  </si>
+  <si>
+    <t>NAR031720011</t>
+  </si>
+  <si>
+    <t>NAR031720012</t>
+  </si>
+  <si>
+    <t>NAR031720013</t>
+  </si>
+  <si>
+    <t>NAR031720014</t>
+  </si>
+  <si>
+    <t>NAR031720015</t>
+  </si>
+  <si>
+    <t>NAR031720016</t>
+  </si>
+  <si>
+    <t>NAR031720017</t>
+  </si>
+  <si>
+    <t>NAR031720018</t>
+  </si>
+  <si>
+    <t>NAR031720019</t>
+  </si>
+  <si>
+    <t>NAR031720020</t>
+  </si>
+  <si>
+    <t>NAR031720021</t>
+  </si>
+  <si>
+    <t>NAR031720022</t>
+  </si>
+  <si>
+    <t>NAR031720023</t>
+  </si>
+  <si>
+    <t>NAR031720024</t>
+  </si>
+  <si>
+    <t>NAR031720025</t>
+  </si>
+  <si>
+    <t>NAR031720026</t>
+  </si>
+  <si>
+    <t>NAR031720027</t>
+  </si>
+  <si>
+    <t>NAR031720028</t>
+  </si>
+  <si>
+    <t>NAR031720029</t>
+  </si>
+  <si>
+    <t>NAR031720030</t>
+  </si>
+  <si>
+    <t>NAR031720031</t>
+  </si>
+  <si>
+    <t>NAR031720032</t>
+  </si>
+  <si>
+    <t>NAR031720033</t>
+  </si>
+  <si>
+    <t>NAR031720034</t>
+  </si>
+  <si>
+    <t>NAR031720035</t>
+  </si>
+  <si>
+    <t>NAR031720036</t>
+  </si>
+  <si>
+    <t>NAR031720037</t>
+  </si>
+  <si>
+    <t>NAR031720038</t>
+  </si>
+  <si>
+    <t>NAR031720039</t>
+  </si>
+  <si>
+    <t>NAR031720040</t>
+  </si>
+  <si>
+    <t>NAR031720041</t>
+  </si>
+  <si>
+    <t>NAR031720042</t>
+  </si>
+  <si>
+    <t>NAR031720043</t>
+  </si>
+  <si>
+    <t>NAR031720044</t>
+  </si>
+  <si>
+    <t>NAR031720045</t>
+  </si>
+  <si>
+    <t>NAR031720046</t>
+  </si>
+  <si>
+    <t>NAR031720047</t>
+  </si>
+  <si>
+    <t>NAR031720048</t>
+  </si>
+  <si>
+    <t>NAR031720049</t>
+  </si>
+  <si>
+    <t>NAR031720050</t>
+  </si>
+  <si>
+    <t>NAR031820001</t>
+  </si>
+  <si>
+    <t>NAR031820002</t>
+  </si>
+  <si>
+    <t>NAR031820003</t>
+  </si>
+  <si>
+    <t>NAR031820004</t>
+  </si>
+  <si>
+    <t>NAR031820005</t>
+  </si>
+  <si>
+    <t>NAR031820006</t>
+  </si>
+  <si>
+    <t>NAR031820007</t>
+  </si>
+  <si>
+    <t>NAR031820008</t>
+  </si>
+  <si>
+    <t>NAR031820009</t>
+  </si>
+  <si>
+    <t>NAR031820010</t>
+  </si>
+  <si>
+    <t>NAR031820011</t>
+  </si>
+  <si>
+    <t>NAR031820012</t>
+  </si>
+  <si>
+    <t>NAR031820013</t>
+  </si>
+  <si>
+    <t>NAR031820014</t>
+  </si>
+  <si>
+    <t>NAR031820015</t>
+  </si>
+  <si>
+    <t>NAR031820016</t>
+  </si>
+  <si>
+    <t>NAR031820017</t>
+  </si>
+  <si>
+    <t>NAR031820018</t>
+  </si>
+  <si>
+    <t>NAR031820019</t>
+  </si>
+  <si>
+    <t>NAR031820020</t>
+  </si>
+  <si>
+    <t>NAR031820021</t>
+  </si>
+  <si>
+    <t>NAR031820022</t>
+  </si>
+  <si>
+    <t>NAR031820023</t>
+  </si>
+  <si>
+    <t>NAR031820024</t>
+  </si>
+  <si>
+    <t>NAR031820025</t>
+  </si>
+  <si>
+    <t>NAR031820026</t>
+  </si>
+  <si>
+    <t>NAR031820027</t>
+  </si>
+  <si>
+    <t>NAR031820028</t>
+  </si>
+  <si>
+    <t>NAR031820029</t>
+  </si>
+  <si>
+    <t>NAR031820030</t>
+  </si>
+  <si>
+    <t>NAR031820031</t>
+  </si>
+  <si>
+    <t>NAR031820032</t>
+  </si>
+  <si>
+    <t>NAR031820033</t>
+  </si>
+  <si>
+    <t>NAR031820034</t>
+  </si>
+  <si>
+    <t>NAR031820035</t>
+  </si>
+  <si>
+    <t>NAR031820036</t>
+  </si>
+  <si>
+    <t>NAR031820037</t>
+  </si>
+  <si>
+    <t>NAR031820038</t>
+  </si>
+  <si>
+    <t>NAR031820039</t>
+  </si>
+  <si>
+    <t>NAR031820040</t>
+  </si>
+  <si>
+    <t>NAR031820041</t>
+  </si>
+  <si>
+    <t>NAR031820042</t>
+  </si>
+  <si>
+    <t>NAR031820043</t>
+  </si>
+  <si>
+    <t>NAR031820044</t>
+  </si>
+  <si>
+    <t>NAR031820045</t>
+  </si>
+  <si>
+    <t>NAR031820046</t>
+  </si>
+  <si>
+    <t>NAR031820047</t>
+  </si>
+  <si>
+    <t>NAR031820048</t>
+  </si>
+  <si>
+    <t>NAR031820049</t>
+  </si>
+  <si>
+    <t>NAR031820050</t>
+  </si>
+  <si>
+    <t>NAR031920001</t>
+  </si>
+  <si>
+    <t>NAR031920002</t>
+  </si>
+  <si>
+    <t>NAR031920003</t>
+  </si>
+  <si>
+    <t>NAR031920004</t>
+  </si>
+  <si>
+    <t>NAR031920005</t>
+  </si>
+  <si>
+    <t>NAR031920006</t>
+  </si>
+  <si>
+    <t>NAR031920007</t>
+  </si>
+  <si>
+    <t>NAR031920008</t>
+  </si>
+  <si>
+    <t>NAR031920009</t>
+  </si>
+  <si>
+    <t>NAR031920010</t>
+  </si>
+  <si>
+    <t>NAR031920011</t>
+  </si>
+  <si>
+    <t>NAR031920012</t>
+  </si>
+  <si>
+    <t>NAR031920013</t>
+  </si>
+  <si>
+    <t>NAR031920014</t>
+  </si>
+  <si>
+    <t>NAR031920015</t>
+  </si>
+  <si>
+    <t>NAR031920016</t>
+  </si>
+  <si>
+    <t>NAR031920017</t>
+  </si>
+  <si>
+    <t>NAR031920018</t>
+  </si>
+  <si>
+    <t>NAR031920019</t>
+  </si>
+  <si>
+    <t>NAR031920020</t>
+  </si>
+  <si>
+    <t>NAR031920021</t>
+  </si>
+  <si>
+    <t>NAR031920022</t>
+  </si>
+  <si>
+    <t>NAR031920023</t>
+  </si>
+  <si>
+    <t>NAR031920024</t>
+  </si>
+  <si>
+    <t>NAR031920025</t>
+  </si>
+  <si>
+    <t>NAR031920026</t>
+  </si>
+  <si>
+    <t>NAR031920027</t>
+  </si>
+  <si>
+    <t>NAR031920028</t>
+  </si>
+  <si>
+    <t>NAR031920029</t>
+  </si>
+  <si>
+    <t>NAR031920030</t>
+  </si>
+  <si>
+    <t>NAR031920031</t>
+  </si>
+  <si>
+    <t>NAR031920032</t>
+  </si>
+  <si>
+    <t>NAR031920033</t>
+  </si>
+  <si>
+    <t>NAR031920034</t>
+  </si>
+  <si>
+    <t>NAR031920035</t>
+  </si>
+  <si>
+    <t>NAR031920036</t>
+  </si>
+  <si>
+    <t>NAR031920037</t>
+  </si>
+  <si>
+    <t>NAR031920038</t>
+  </si>
+  <si>
+    <t>NAR031920039</t>
+  </si>
+  <si>
+    <t>NAR031920040</t>
+  </si>
+  <si>
+    <t>NAR031920041</t>
+  </si>
+  <si>
+    <t>NAR031920042</t>
+  </si>
+  <si>
+    <t>NAR031920043</t>
+  </si>
+  <si>
+    <t>NAR031920044</t>
+  </si>
+  <si>
+    <t>NAR031920045</t>
+  </si>
+  <si>
+    <t>NAR031920046</t>
+  </si>
+  <si>
+    <t>NAR031920047</t>
+  </si>
+  <si>
+    <t>NAR031920048</t>
+  </si>
+  <si>
+    <t>NAR031920049</t>
+  </si>
+  <si>
+    <t>NAR031920050</t>
+  </si>
+  <si>
+    <t>NAR032020001</t>
+  </si>
+  <si>
+    <t>NAR032020002</t>
+  </si>
+  <si>
+    <t>NAR032020003</t>
+  </si>
+  <si>
+    <t>NAR032020004</t>
+  </si>
+  <si>
+    <t>NAR032020005</t>
+  </si>
+  <si>
+    <t>NAR032020006</t>
+  </si>
+  <si>
+    <t>NAR032020007</t>
+  </si>
+  <si>
+    <t>NAR032020008</t>
+  </si>
+  <si>
+    <t>NAR032020009</t>
+  </si>
+  <si>
+    <t>NAR032020010</t>
+  </si>
+  <si>
+    <t>NAR032020011</t>
+  </si>
+  <si>
+    <t>NAR032020012</t>
+  </si>
+  <si>
+    <t>NAR032020013</t>
+  </si>
+  <si>
+    <t>NAR032020014</t>
+  </si>
+  <si>
+    <t>NAR032020015</t>
+  </si>
+  <si>
+    <t>NAR032020016</t>
+  </si>
+  <si>
+    <t>NAR032020017</t>
+  </si>
+  <si>
+    <t>NAR032020018</t>
+  </si>
+  <si>
+    <t>NAR032020019</t>
+  </si>
+  <si>
+    <t>NAR032020020</t>
+  </si>
+  <si>
+    <t>NAR032020021</t>
+  </si>
+  <si>
+    <t>NAR032020022</t>
+  </si>
+  <si>
+    <t>NAR032020023</t>
+  </si>
+  <si>
+    <t>NAR032020024</t>
+  </si>
+  <si>
+    <t>NAR032020025</t>
+  </si>
+  <si>
+    <t>NAR032020026</t>
+  </si>
+  <si>
+    <t>NAR032020027</t>
+  </si>
+  <si>
+    <t>NAR032020028</t>
+  </si>
+  <si>
+    <t>NAR032020029</t>
+  </si>
+  <si>
+    <t>NAR032020030</t>
+  </si>
+  <si>
+    <t>NAR032020031</t>
+  </si>
+  <si>
+    <t>NAR032020032</t>
+  </si>
+  <si>
+    <t>NAR032020033</t>
+  </si>
+  <si>
+    <t>NAR032020034</t>
+  </si>
+  <si>
+    <t>NAR032020035</t>
+  </si>
+  <si>
+    <t>NAR032020036</t>
+  </si>
+  <si>
+    <t>NAR032020037</t>
+  </si>
+  <si>
+    <t>NAR032020038</t>
+  </si>
+  <si>
+    <t>NAR032020039</t>
+  </si>
+  <si>
+    <t>NAR032020040</t>
+  </si>
+  <si>
+    <t>NAR032020041</t>
+  </si>
+  <si>
+    <t>NAR032020042</t>
+  </si>
+  <si>
+    <t>NAR032020043</t>
+  </si>
+  <si>
+    <t>NAR032020044</t>
+  </si>
+  <si>
+    <t>NAR032020045</t>
+  </si>
+  <si>
+    <t>NAR032020046</t>
+  </si>
+  <si>
+    <t>NAR032020047</t>
+  </si>
+  <si>
+    <t>NAR032020048</t>
+  </si>
+  <si>
+    <t>NAR032020049</t>
+  </si>
+  <si>
+    <t>NAR032020050</t>
+  </si>
+  <si>
+    <t>NAR032120001</t>
+  </si>
+  <si>
+    <t>NAR032120002</t>
+  </si>
+  <si>
+    <t>NAR032120003</t>
+  </si>
+  <si>
+    <t>NAR032120004</t>
+  </si>
+  <si>
+    <t>NAR032120005</t>
+  </si>
+  <si>
+    <t>NAR032120006</t>
+  </si>
+  <si>
+    <t>NAR032120007</t>
+  </si>
+  <si>
+    <t>NAR032120008</t>
+  </si>
+  <si>
+    <t>NAR032120009</t>
+  </si>
+  <si>
+    <t>NAR032120010</t>
+  </si>
+  <si>
+    <t>NAR032120011</t>
+  </si>
+  <si>
+    <t>NAR032120012</t>
+  </si>
+  <si>
+    <t>NAR032120013</t>
+  </si>
+  <si>
+    <t>NAR032120014</t>
+  </si>
+  <si>
+    <t>NAR032120015</t>
+  </si>
+  <si>
+    <t>NAR032120016</t>
+  </si>
+  <si>
+    <t>NAR032120017</t>
+  </si>
+  <si>
+    <t>NAR032120018</t>
+  </si>
+  <si>
+    <t>NAR032120019</t>
+  </si>
+  <si>
+    <t>NAR032120020</t>
+  </si>
+  <si>
+    <t>NAR032120021</t>
+  </si>
+  <si>
+    <t>NAR032120022</t>
+  </si>
+  <si>
+    <t>NAR032120023</t>
+  </si>
+  <si>
+    <t>NAR032120024</t>
+  </si>
+  <si>
+    <t>NAR032120025</t>
+  </si>
+  <si>
+    <t>NAR032120026</t>
+  </si>
+  <si>
+    <t>NAR032120027</t>
+  </si>
+  <si>
+    <t>NAR032120028</t>
+  </si>
+  <si>
+    <t>NAR032120029</t>
+  </si>
+  <si>
+    <t>NAR032120030</t>
+  </si>
+  <si>
+    <t>NAR032120031</t>
+  </si>
+  <si>
+    <t>NAR032120032</t>
+  </si>
+  <si>
+    <t>NAR032120033</t>
+  </si>
+  <si>
+    <t>NAR032120034</t>
+  </si>
+  <si>
+    <t>NAR032120035</t>
+  </si>
+  <si>
+    <t>NAR032120036</t>
+  </si>
+  <si>
+    <t>NAR032120037</t>
+  </si>
+  <si>
+    <t>NAR032120038</t>
+  </si>
+  <si>
+    <t>NAR032120039</t>
+  </si>
+  <si>
+    <t>NAR032120040</t>
+  </si>
+  <si>
+    <t>NAR032120041</t>
+  </si>
+  <si>
+    <t>NAR032120042</t>
+  </si>
+  <si>
+    <t>NAR032120043</t>
+  </si>
+  <si>
+    <t>NAR032120044</t>
+  </si>
+  <si>
+    <t>NAR032120045</t>
+  </si>
+  <si>
+    <t>NAR032120046</t>
+  </si>
+  <si>
+    <t>NAR032120047</t>
+  </si>
+  <si>
+    <t>NAR032120048</t>
+  </si>
+  <si>
+    <t>NAR032120049</t>
+  </si>
+  <si>
+    <t>NAR032120050</t>
+  </si>
+  <si>
+    <t>NAR033020001</t>
+  </si>
+  <si>
+    <t>NAR033020002</t>
+  </si>
+  <si>
+    <t>NAR033020003</t>
+  </si>
+  <si>
+    <t>NAR033020004</t>
+  </si>
+  <si>
+    <t>NAR033020005</t>
+  </si>
+  <si>
+    <t>NAR033020006</t>
+  </si>
+  <si>
+    <t>NAR033020007</t>
+  </si>
+  <si>
+    <t>NAR033020008</t>
+  </si>
+  <si>
+    <t>NAR033020009</t>
+  </si>
+  <si>
+    <t>NAR033020010</t>
+  </si>
+  <si>
+    <t>NAR033020011</t>
+  </si>
+  <si>
+    <t>NAR033020012</t>
+  </si>
+  <si>
+    <t>NAR033020013</t>
+  </si>
+  <si>
+    <t>NAR033020014</t>
+  </si>
+  <si>
+    <t>NAR033020015</t>
+  </si>
+  <si>
+    <t>NAR033020016</t>
+  </si>
+  <si>
+    <t>NAR033020017</t>
+  </si>
+  <si>
+    <t>NAR033020018</t>
+  </si>
+  <si>
+    <t>NAR033020019</t>
+  </si>
+  <si>
+    <t>NAR033020020</t>
+  </si>
+  <si>
+    <t>NAR033020021</t>
+  </si>
+  <si>
+    <t>NAR033020022</t>
+  </si>
+  <si>
+    <t>NAR033020023</t>
+  </si>
+  <si>
+    <t>NAR033020024</t>
+  </si>
+  <si>
+    <t>NAR033020025</t>
+  </si>
+  <si>
+    <t>NAR033020026</t>
+  </si>
+  <si>
+    <t>NAR033020027</t>
+  </si>
+  <si>
+    <t>NAR033020028</t>
+  </si>
+  <si>
+    <t>NAR033020029</t>
+  </si>
+  <si>
+    <t>NAR033020030</t>
+  </si>
+  <si>
+    <t>NAR033020031</t>
+  </si>
+  <si>
+    <t>NAR033020032</t>
+  </si>
+  <si>
+    <t>NAR033020033</t>
+  </si>
+  <si>
+    <t>NAR033020034</t>
+  </si>
+  <si>
+    <t>NAR033020035</t>
+  </si>
+  <si>
+    <t>NAR033020036</t>
+  </si>
+  <si>
+    <t>NAR033020037</t>
+  </si>
+  <si>
+    <t>NAR033020038</t>
+  </si>
+  <si>
+    <t>NAR033020039</t>
+  </si>
+  <si>
+    <t>NAR033020040</t>
+  </si>
+  <si>
+    <t>NAR033020041</t>
+  </si>
+  <si>
+    <t>NAR033020042</t>
+  </si>
+  <si>
+    <t>NAR033020043</t>
+  </si>
+  <si>
+    <t>NAR033020044</t>
+  </si>
+  <si>
+    <t>NAR033020045</t>
+  </si>
+  <si>
+    <t>NAR033020046</t>
+  </si>
+  <si>
+    <t>NAR033020047</t>
+  </si>
+  <si>
+    <t>NAR033020048</t>
+  </si>
+  <si>
+    <t>NAR033020049</t>
+  </si>
+  <si>
+    <t>NAR033020050</t>
+  </si>
+  <si>
+    <t>NAR033120001</t>
+  </si>
+  <si>
+    <t>NAR033120002</t>
+  </si>
+  <si>
+    <t>NAR033120003</t>
+  </si>
+  <si>
+    <t>NAR033120004</t>
+  </si>
+  <si>
+    <t>NAR033120005</t>
+  </si>
+  <si>
+    <t>NAR033120006</t>
+  </si>
+  <si>
+    <t>NAR033120007</t>
+  </si>
+  <si>
+    <t>NAR033120008</t>
+  </si>
+  <si>
+    <t>NAR033120009</t>
+  </si>
+  <si>
+    <t>NAR033120010</t>
+  </si>
+  <si>
+    <t>NAR033120011</t>
+  </si>
+  <si>
+    <t>NAR033120012</t>
+  </si>
+  <si>
+    <t>NAR033120013</t>
+  </si>
+  <si>
+    <t>NAR033120014</t>
+  </si>
+  <si>
+    <t>NAR033120015</t>
+  </si>
+  <si>
+    <t>NAR033120016</t>
+  </si>
+  <si>
+    <t>NAR033120017</t>
+  </si>
+  <si>
+    <t>NAR033120018</t>
+  </si>
+  <si>
+    <t>NAR033120019</t>
+  </si>
+  <si>
+    <t>NAR033120020</t>
+  </si>
+  <si>
+    <t>NAR033120021</t>
+  </si>
+  <si>
+    <t>NAR033120022</t>
+  </si>
+  <si>
+    <t>NAR033120023</t>
+  </si>
+  <si>
+    <t>NAR033120024</t>
+  </si>
+  <si>
+    <t>NAR033120025</t>
+  </si>
+  <si>
+    <t>NAR033120026</t>
+  </si>
+  <si>
+    <t>NAR033120027</t>
+  </si>
+  <si>
+    <t>NAR033120028</t>
+  </si>
+  <si>
+    <t>NAR033120029</t>
+  </si>
+  <si>
+    <t>NAR033120030</t>
+  </si>
+  <si>
+    <t>NAR033120031</t>
+  </si>
+  <si>
+    <t>NAR033120032</t>
+  </si>
+  <si>
+    <t>NAR033120033</t>
+  </si>
+  <si>
+    <t>NAR033120034</t>
+  </si>
+  <si>
+    <t>NAR033120035</t>
+  </si>
+  <si>
+    <t>NAR033120036</t>
+  </si>
+  <si>
+    <t>NAR033120037</t>
+  </si>
+  <si>
+    <t>NAR033120038</t>
+  </si>
+  <si>
+    <t>NAR033120039</t>
+  </si>
+  <si>
+    <t>NAR033120040</t>
+  </si>
+  <si>
+    <t>NAR033120041</t>
+  </si>
+  <si>
+    <t>NAR033120042</t>
+  </si>
+  <si>
+    <t>NAR033120043</t>
+  </si>
+  <si>
+    <t>NAR033120044</t>
+  </si>
+  <si>
+    <t>NAR033120045</t>
+  </si>
+  <si>
+    <t>NAR033120046</t>
+  </si>
+  <si>
+    <t>NAR033120047</t>
+  </si>
+  <si>
+    <t>NAR033120048</t>
+  </si>
+  <si>
+    <t>NAR033120049</t>
+  </si>
+  <si>
+    <t>NAR033120050</t>
+  </si>
+  <si>
+    <t>NAR040120001</t>
+  </si>
+  <si>
+    <t>NAR040120002</t>
+  </si>
+  <si>
+    <t>NAR040120003</t>
+  </si>
+  <si>
+    <t>NAR040120004</t>
+  </si>
+  <si>
+    <t>NAR040120005</t>
+  </si>
+  <si>
+    <t>NAR040120006</t>
+  </si>
+  <si>
+    <t>NAR040120007</t>
+  </si>
+  <si>
+    <t>NAR040120008</t>
+  </si>
+  <si>
+    <t>NAR040120009</t>
+  </si>
+  <si>
+    <t>NAR040120010</t>
+  </si>
+  <si>
+    <t>NAR040120011</t>
+  </si>
+  <si>
+    <t>NAR040120012</t>
+  </si>
+  <si>
+    <t>NAR040120013</t>
+  </si>
+  <si>
+    <t>NAR040120014</t>
+  </si>
+  <si>
+    <t>NAR040120015</t>
+  </si>
+  <si>
+    <t>NAR040120016</t>
+  </si>
+  <si>
+    <t>NAR040120017</t>
+  </si>
+  <si>
+    <t>NAR040120018</t>
+  </si>
+  <si>
+    <t>NAR040120019</t>
+  </si>
+  <si>
+    <t>NAR040120020</t>
+  </si>
+  <si>
+    <t>NAR040120021</t>
+  </si>
+  <si>
+    <t>NAR040120022</t>
+  </si>
+  <si>
+    <t>NAR040120023</t>
+  </si>
+  <si>
+    <t>NAR040120024</t>
+  </si>
+  <si>
+    <t>NAR040120025</t>
+  </si>
+  <si>
+    <t>NAR040120026</t>
+  </si>
+  <si>
+    <t>NAR040120027</t>
+  </si>
+  <si>
+    <t>NAR040120028</t>
+  </si>
+  <si>
+    <t>NAR040120029</t>
+  </si>
+  <si>
+    <t>NAR040120030</t>
+  </si>
+  <si>
+    <t>NAR040120031</t>
+  </si>
+  <si>
+    <t>NAR040120032</t>
+  </si>
+  <si>
+    <t>NAR040120033</t>
+  </si>
+  <si>
+    <t>NAR040120034</t>
+  </si>
+  <si>
+    <t>NAR040120035</t>
+  </si>
+  <si>
+    <t>NAR040120036</t>
+  </si>
+  <si>
+    <t>NAR040120037</t>
+  </si>
+  <si>
+    <t>NAR040120038</t>
+  </si>
+  <si>
+    <t>NAR040120039</t>
+  </si>
+  <si>
+    <t>NAR040120040</t>
+  </si>
+  <si>
+    <t>NAR040120041</t>
+  </si>
+  <si>
+    <t>NAR040120042</t>
+  </si>
+  <si>
+    <t>NAR040120043</t>
+  </si>
+  <si>
+    <t>NAR040120044</t>
+  </si>
+  <si>
+    <t>NAR040120045</t>
+  </si>
+  <si>
+    <t>NAR040120046</t>
+  </si>
+  <si>
+    <t>NAR040120047</t>
+  </si>
+  <si>
+    <t>NAR040120048</t>
+  </si>
+  <si>
+    <t>NAR040120049</t>
+  </si>
+  <si>
+    <t>NAR040120050</t>
+  </si>
+  <si>
+    <t>NAR040220001</t>
+  </si>
+  <si>
+    <t>NAR040220002</t>
+  </si>
+  <si>
+    <t>NAR040220003</t>
+  </si>
+  <si>
+    <t>NAR040220004</t>
+  </si>
+  <si>
+    <t>NAR040220005</t>
+  </si>
+  <si>
+    <t>NAR040220006</t>
+  </si>
+  <si>
+    <t>NAR040220007</t>
+  </si>
+  <si>
+    <t>NAR040220008</t>
+  </si>
+  <si>
+    <t>NAR040220009</t>
+  </si>
+  <si>
+    <t>NAR040220010</t>
+  </si>
+  <si>
+    <t>NAR040220011</t>
+  </si>
+  <si>
+    <t>NAR040220012</t>
+  </si>
+  <si>
+    <t>NAR040220013</t>
+  </si>
+  <si>
+    <t>NAR040220014</t>
+  </si>
+  <si>
+    <t>NAR040220015</t>
+  </si>
+  <si>
+    <t>NAR040220016</t>
+  </si>
+  <si>
+    <t>NAR040220017</t>
+  </si>
+  <si>
+    <t>NAR040220018</t>
+  </si>
+  <si>
+    <t>NAR040220019</t>
+  </si>
+  <si>
+    <t>NAR040220020</t>
+  </si>
+  <si>
+    <t>NAR040220021</t>
+  </si>
+  <si>
+    <t>NAR040220022</t>
+  </si>
+  <si>
+    <t>NAR040220023</t>
+  </si>
+  <si>
+    <t>NAR040220024</t>
+  </si>
+  <si>
+    <t>NAR040220025</t>
+  </si>
+  <si>
+    <t>NAR040220026</t>
+  </si>
+  <si>
+    <t>NAR040220027</t>
+  </si>
+  <si>
+    <t>NAR040220028</t>
+  </si>
+  <si>
+    <t>NAR040220029</t>
+  </si>
+  <si>
+    <t>NAR040220030</t>
+  </si>
+  <si>
+    <t>NAR040220031</t>
+  </si>
+  <si>
+    <t>NAR040220032</t>
+  </si>
+  <si>
+    <t>NAR040220033</t>
+  </si>
+  <si>
+    <t>NAR040220034</t>
+  </si>
+  <si>
+    <t>NAR040220035</t>
+  </si>
+  <si>
+    <t>NAR040220036</t>
+  </si>
+  <si>
+    <t>NAR040220037</t>
+  </si>
+  <si>
+    <t>NAR040220038</t>
+  </si>
+  <si>
+    <t>NAR040220039</t>
+  </si>
+  <si>
+    <t>NAR040220040</t>
+  </si>
+  <si>
+    <t>NAR040220041</t>
+  </si>
+  <si>
+    <t>NAR040220042</t>
+  </si>
+  <si>
+    <t>NAR040220043</t>
+  </si>
+  <si>
+    <t>NAR040220044</t>
+  </si>
+  <si>
+    <t>NAR040220045</t>
+  </si>
+  <si>
+    <t>NAR040220046</t>
+  </si>
+  <si>
+    <t>NAR040220047</t>
+  </si>
+  <si>
+    <t>NAR040220048</t>
+  </si>
+  <si>
+    <t>NAR040220049</t>
+  </si>
+  <si>
+    <t>NAR040220050</t>
+  </si>
+  <si>
+    <t>NAR040320001</t>
+  </si>
+  <si>
+    <t>NAR040320002</t>
+  </si>
+  <si>
+    <t>NAR040320003</t>
+  </si>
+  <si>
+    <t>NAR040320004</t>
+  </si>
+  <si>
+    <t>NAR040320005</t>
+  </si>
+  <si>
+    <t>NAR040320006</t>
+  </si>
+  <si>
+    <t>NAR040320007</t>
+  </si>
+  <si>
+    <t>NAR040320008</t>
+  </si>
+  <si>
+    <t>NAR040320009</t>
+  </si>
+  <si>
+    <t>NAR040320010</t>
+  </si>
+  <si>
+    <t>NAR040320011</t>
+  </si>
+  <si>
+    <t>NAR040320012</t>
+  </si>
+  <si>
+    <t>NAR040320013</t>
+  </si>
+  <si>
+    <t>NAR040320014</t>
+  </si>
+  <si>
+    <t>NAR040320015</t>
+  </si>
+  <si>
+    <t>NAR040320016</t>
+  </si>
+  <si>
+    <t>NAR040320017</t>
+  </si>
+  <si>
+    <t>NAR040320018</t>
+  </si>
+  <si>
+    <t>NAR040320019</t>
+  </si>
+  <si>
+    <t>NAR040320020</t>
+  </si>
+  <si>
+    <t>NAR040320021</t>
+  </si>
+  <si>
+    <t>NAR040320022</t>
+  </si>
+  <si>
+    <t>NAR040320023</t>
+  </si>
+  <si>
+    <t>NAR040320024</t>
+  </si>
+  <si>
+    <t>NAR040320025</t>
+  </si>
+  <si>
+    <t>NAR040320026</t>
+  </si>
+  <si>
+    <t>NAR040320027</t>
+  </si>
+  <si>
+    <t>NAR040320028</t>
+  </si>
+  <si>
+    <t>NAR040320029</t>
+  </si>
+  <si>
+    <t>NAR040320030</t>
+  </si>
+  <si>
+    <t>NAR040320031</t>
+  </si>
+  <si>
+    <t>NAR040320032</t>
+  </si>
+  <si>
+    <t>NAR040320033</t>
+  </si>
+  <si>
+    <t>NAR040320034</t>
+  </si>
+  <si>
+    <t>NAR040320035</t>
+  </si>
+  <si>
+    <t>NAR040320036</t>
+  </si>
+  <si>
+    <t>NAR040320037</t>
+  </si>
+  <si>
+    <t>NAR040320038</t>
+  </si>
+  <si>
+    <t>NAR040320039</t>
+  </si>
+  <si>
+    <t>NAR040320040</t>
+  </si>
+  <si>
+    <t>NAR040320041</t>
+  </si>
+  <si>
+    <t>NAR040320042</t>
+  </si>
+  <si>
+    <t>NAR040320043</t>
+  </si>
+  <si>
+    <t>NAR040320044</t>
+  </si>
+  <si>
+    <t>NAR040320045</t>
+  </si>
+  <si>
+    <t>NAR040320046</t>
+  </si>
+  <si>
+    <t>NAR040320047</t>
+  </si>
+  <si>
+    <t>NAR040320048</t>
+  </si>
+  <si>
+    <t>NAR040320049</t>
+  </si>
+  <si>
+    <t>NAR040320050</t>
+  </si>
+  <si>
+    <t>NAR040420001</t>
+  </si>
+  <si>
+    <t>NAR040420002</t>
+  </si>
+  <si>
+    <t>NAR040420003</t>
+  </si>
+  <si>
+    <t>NAR040420004</t>
+  </si>
+  <si>
+    <t>NAR040420005</t>
+  </si>
+  <si>
+    <t>NAR040420006</t>
+  </si>
+  <si>
+    <t>NAR040420007</t>
+  </si>
+  <si>
+    <t>NAR040420008</t>
+  </si>
+  <si>
+    <t>NAR040420009</t>
+  </si>
+  <si>
+    <t>NAR040420010</t>
+  </si>
+  <si>
+    <t>NAR040420011</t>
+  </si>
+  <si>
+    <t>NAR040420012</t>
+  </si>
+  <si>
+    <t>NAR040420013</t>
+  </si>
+  <si>
+    <t>NAR040420014</t>
+  </si>
+  <si>
+    <t>NAR040420015</t>
+  </si>
+  <si>
+    <t>NAR040420016</t>
+  </si>
+  <si>
+    <t>NAR040420017</t>
+  </si>
+  <si>
+    <t>NAR040420018</t>
+  </si>
+  <si>
+    <t>NAR040420019</t>
+  </si>
+  <si>
+    <t>NAR040420020</t>
+  </si>
+  <si>
+    <t>NAR040420021</t>
+  </si>
+  <si>
+    <t>NAR040420022</t>
+  </si>
+  <si>
+    <t>NAR040420023</t>
+  </si>
+  <si>
+    <t>NAR040420024</t>
+  </si>
+  <si>
+    <t>NAR040420025</t>
+  </si>
+  <si>
+    <t>NAR040420026</t>
+  </si>
+  <si>
+    <t>NAR040420027</t>
+  </si>
+  <si>
+    <t>NAR040420028</t>
+  </si>
+  <si>
+    <t>NAR040420029</t>
+  </si>
+  <si>
+    <t>NAR040420030</t>
+  </si>
+  <si>
+    <t>NAR040420031</t>
+  </si>
+  <si>
+    <t>NAR040420032</t>
+  </si>
+  <si>
+    <t>NAR040420033</t>
+  </si>
+  <si>
+    <t>NAR040420034</t>
+  </si>
+  <si>
+    <t>NAR040420035</t>
+  </si>
+  <si>
+    <t>NAR040420036</t>
+  </si>
+  <si>
+    <t>NAR040420037</t>
+  </si>
+  <si>
+    <t>NAR040420038</t>
+  </si>
+  <si>
+    <t>NAR040420039</t>
+  </si>
+  <si>
+    <t>NAR040420040</t>
+  </si>
+  <si>
+    <t>NAR040420041</t>
+  </si>
+  <si>
+    <t>NAR040420042</t>
+  </si>
+  <si>
+    <t>NAR040420043</t>
+  </si>
+  <si>
+    <t>NAR040420044</t>
+  </si>
+  <si>
+    <t>NAR040420045</t>
+  </si>
+  <si>
+    <t>NAR040420046</t>
+  </si>
+  <si>
+    <t>NAR040420047</t>
+  </si>
+  <si>
+    <t>NAR040420048</t>
+  </si>
+  <si>
+    <t>NAR040420049</t>
+  </si>
+  <si>
+    <t>NAR040420050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -955,9 +2764,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,19 +3050,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A896" sqref="A896"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +3070,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +3078,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +3086,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +3094,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +3102,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +3110,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +3118,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +3126,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +3134,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +3142,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +3150,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +3158,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +3166,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +3174,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +3182,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +3190,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +3198,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +3206,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +3214,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1410,7 +3222,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +3230,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +3238,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +3246,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +3254,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +3262,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +3270,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +3278,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +3286,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +3294,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +3302,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +3310,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +3318,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1514,7 +3326,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +3334,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +3342,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1538,7 +3350,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +3358,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1554,7 +3366,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +3374,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +3382,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1578,7 +3390,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1586,7 +3398,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1594,7 +3406,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1602,7 +3414,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1610,7 +3422,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +3430,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +3438,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1634,7 +3446,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1642,7 +3454,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1650,7 +3462,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1658,7 +3470,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1666,7 +3478,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1674,7 +3486,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1682,7 +3494,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1690,7 +3502,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +3510,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1706,7 +3518,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +3526,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1722,7 +3534,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1730,7 +3542,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1738,7 +3550,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +3558,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1754,7 +3566,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1762,7 +3574,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1770,7 +3582,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1778,7 +3590,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1786,7 +3598,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1794,7 +3606,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1802,7 +3614,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1810,7 +3622,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1818,7 +3630,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1826,7 +3638,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1834,7 +3646,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1842,7 +3654,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1850,7 +3662,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1858,7 +3670,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1866,7 +3678,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1874,7 +3686,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1882,7 +3694,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1890,7 +3702,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1898,7 +3710,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1906,7 +3718,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1914,7 +3726,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1922,7 +3734,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1930,7 +3742,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1938,7 +3750,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1946,7 +3758,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1954,7 +3766,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1962,7 +3774,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1970,7 +3782,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1978,7 +3790,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1986,7 +3798,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1994,7 +3806,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2002,7 +3814,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2010,7 +3822,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2018,7 +3830,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2026,7 +3838,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2034,7 +3846,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2042,7 +3854,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2050,7 +3862,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2058,7 +3870,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2066,7 +3878,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2074,7 +3886,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2082,7 +3894,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2090,7 +3902,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2098,7 +3910,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2106,7 +3918,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2114,7 +3926,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2122,7 +3934,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2130,7 +3942,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2138,7 +3950,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2146,7 +3958,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2154,7 +3966,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2162,7 +3974,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2170,7 +3982,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2178,7 +3990,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2186,7 +3998,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2194,7 +4006,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2202,7 +4014,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2210,7 +4022,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2218,7 +4030,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2226,7 +4038,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2234,7 +4046,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2242,7 +4054,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2250,7 +4062,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2258,7 +4070,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2266,7 +4078,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2274,7 +4086,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2282,7 +4094,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2290,7 +4102,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2298,7 +4110,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2306,7 +4118,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2314,7 +4126,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2322,7 +4134,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2330,7 +4142,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2338,7 +4150,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2346,7 +4158,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2354,7 +4166,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2362,7 +4174,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2370,7 +4182,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2378,7 +4190,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2386,7 +4198,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2394,7 +4206,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -2402,7 +4214,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2410,7 +4222,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -2418,7 +4230,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -2426,7 +4238,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -2434,7 +4246,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -2442,7 +4254,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2450,7 +4262,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -2458,7 +4270,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -2466,7 +4278,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -2474,7 +4286,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -2482,7 +4294,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -2490,7 +4302,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -2498,7 +4310,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -2506,7 +4318,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2514,7 +4326,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2522,7 +4334,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -2530,7 +4342,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -2538,7 +4350,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -2546,7 +4358,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -2554,7 +4366,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -2562,7 +4374,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -2570,7 +4382,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -2578,7 +4390,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -2586,7 +4398,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -2594,7 +4406,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -2602,7 +4414,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -2610,7 +4422,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -2618,7 +4430,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -2626,7 +4438,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -2634,7 +4446,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -2642,7 +4454,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -2650,7 +4462,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -2658,7 +4470,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -2666,7 +4478,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -2674,7 +4486,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -2682,7 +4494,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -2690,7 +4502,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -2698,7 +4510,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -2706,7 +4518,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -2714,7 +4526,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -2722,7 +4534,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -2730,7 +4542,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -2738,7 +4550,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -2746,7 +4558,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -2754,7 +4566,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -2762,7 +4574,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -2770,7 +4582,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -2778,7 +4590,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -2786,7 +4598,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -2794,7 +4606,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -2802,7 +4614,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -2810,7 +4622,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -2818,7 +4630,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -2826,7 +4638,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -2834,7 +4646,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -2842,7 +4654,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -2850,7 +4662,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -2858,7 +4670,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -2866,7 +4678,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -2874,7 +4686,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -2882,7 +4694,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -2890,7 +4702,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -2898,7 +4710,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -2906,7 +4718,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -2914,7 +4726,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -2922,7 +4734,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -2930,7 +4742,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -2938,7 +4750,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -2946,7 +4758,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -2954,7 +4766,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -2962,7 +4774,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -2970,7 +4782,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -2978,7 +4790,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -2986,7 +4798,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -2994,7 +4806,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3002,7 +4814,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3010,7 +4822,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3018,7 +4830,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3026,7 +4838,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3034,7 +4846,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3042,7 +4854,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3050,7 +4862,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3058,7 +4870,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3066,7 +4878,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3074,7 +4886,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3082,7 +4894,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3090,7 +4902,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3098,7 +4910,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3106,7 +4918,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3114,7 +4926,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3122,7 +4934,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3130,7 +4942,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3138,7 +4950,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3146,7 +4958,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3154,7 +4966,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3162,7 +4974,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3170,7 +4982,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3178,7 +4990,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3186,7 +4998,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3194,7 +5006,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3202,7 +5014,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3210,7 +5022,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3218,7 +5030,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3226,7 +5038,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3234,7 +5046,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3242,7 +5054,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3250,7 +5062,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -3258,7 +5070,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -3266,7 +5078,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -3274,7 +5086,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -3282,7 +5094,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -3290,7 +5102,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -3298,7 +5110,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -3306,7 +5118,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -3314,7 +5126,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -3322,7 +5134,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -3330,7 +5142,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -3338,7 +5150,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -3346,7 +5158,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -3354,7 +5166,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -3362,7 +5174,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -3370,7 +5182,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -3378,7 +5190,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -3386,7 +5198,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -3394,7 +5206,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -3402,7 +5214,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -3410,7 +5222,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -3418,7 +5230,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -3426,7 +5238,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -3434,7 +5246,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -3442,7 +5254,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -3450,7 +5262,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -3458,7 +5270,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -3466,7 +5278,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -3474,7 +5286,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -3482,7 +5294,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -3490,7 +5302,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -3498,7 +5310,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -3506,7 +5318,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -3514,7 +5326,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -3522,7 +5334,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -3530,7 +5342,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -3538,7 +5350,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -3546,7 +5358,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -3554,7 +5366,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -3562,7 +5374,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -3570,7 +5382,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -3578,7 +5390,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -3586,7 +5398,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -3594,7 +5406,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -3602,7 +5414,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -3610,12 +5422,4812 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" s="1">
         <v>43630</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B578" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B579" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B583" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B584" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B585" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B586" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B587" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B588" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B589" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B590" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B591" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B592" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B593" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B594" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B595" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B596" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B597" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B598" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B599" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B600" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B601" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B602" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B603" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B604" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B605" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B606" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B607" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B608" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B609" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B610" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B611" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B612" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B613" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B614" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B615" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B616" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B617" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B618" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B619" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B620" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B621" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B622" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B623" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B624" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B625" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B626" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B627" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B628" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B629" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B630" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B631" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B632" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B633" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B634" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B635" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B636" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B637" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B638" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B639" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B640" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B641" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B642" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B643" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B644" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B645" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B646" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B647" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B648" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B649" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B650" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B651" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B652" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B653" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B654" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B655" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B656" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B657" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B658" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B659" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B660" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B661" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B662" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B663" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B664" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B665" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B666" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B667" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B668" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B669" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B670" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B671" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B672" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B673" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B674" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B675" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B676" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B677" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B678" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B679" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B680" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B681" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B682" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B683" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B684" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B685" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B686" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B687" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B688" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B689" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B690" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B691" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B692" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B693" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B694" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B695" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B696" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B697" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B698" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B699" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B700" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B701" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B702" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B703" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B704" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B705" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B706" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B707" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B708" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B709" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B710" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B711" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B712" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B713" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B714" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B715" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B716" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B717" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B718" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B719" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B720" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B721" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B722" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B723" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B724" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B725" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B726" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B727" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B728" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B729" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B730" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B731" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B732" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B733" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B734" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B735" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B736" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B737" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B738" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B739" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B740" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B741" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B742" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B743" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B744" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B745" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B746" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B747" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B748" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B749" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B750" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B751" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B752" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B753" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B754" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B755" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B756" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B757" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B758" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B759" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B760" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B761" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B762" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B763" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B764" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B765" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B766" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B767" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B768" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B769" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B770" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B771" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B772" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B773" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B774" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B775" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B776" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B777" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B778" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B779" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B780" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B781" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B782" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B783" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B784" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B785" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B786" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B787" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B788" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B789" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B790" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B791" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B792" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B793" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B794" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B795" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B796" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B797" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B798" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B799" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B800" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B801" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B802" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B803" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B804" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B805" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B806" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B807" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B808" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B809" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B810" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B811" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B812" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B813" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B814" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B815" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B816" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B817" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B818" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B819" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B820" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B821" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B822" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B823" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B824" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B825" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B826" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B827" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B828" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B829" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B830" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B831" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B832" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B833" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B834" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B835" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B836" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B837" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B838" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B839" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B840" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B841" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B842" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B843" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B844" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B845" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B846" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B847" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B848" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B849" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B850" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B851" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B852" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B853" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B854" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B855" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B856" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B857" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B858" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B859" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B860" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B861" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B862" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B863" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B864" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B865" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B866" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B867" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B868" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B869" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B870" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B871" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B872" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B873" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B874" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B875" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B876" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B877" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B878" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B879" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B880" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B881" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B882" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B883" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B884" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B885" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B886" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B887" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B888" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B889" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B890" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B891" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B892" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B893" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B894" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B895" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B896" s="1">
+        <v>43925</v>
       </c>
     </row>
   </sheetData>
@@ -3624,26 +10236,12 @@
       <sortCondition ref="A1:A148"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B867E9D7F32E45489B1C7C69979B644D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="772cbc66b4e03ebe4a6feb88bfb7f7cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7321bc-394f-4183-b398-e3bd3cc6b739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c284b7c3d10beb7fe0aa7c1c5a4308f" ns2:_="">
     <xsd:import namespace="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
@@ -3807,17 +10405,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A83207-64A4-4293-963E-CC5B4AAB2FC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA35EC90-91D6-4002-994C-DDFD84E8D3A9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3831,5 +10447,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA35EC90-91D6-4002-994C-DDFD84E8D3A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A83207-64A4-4293-963E-CC5B4AAB2FC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fish IDs/NAR.xlsx
+++ b/Fish IDs/NAR.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD1C4FD-9401-4F4F-AA31-0401508A0138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25440" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2725,7 +2724,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -3049,20 +3048,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A896" sqref="A896"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:A896"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>43548</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5830,7 +5829,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>410</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>412</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>413</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>414</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>416</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>417</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>418</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>419</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>420</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>421</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>422</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>423</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>424</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>425</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>426</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>427</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>428</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>429</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>430</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>431</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>432</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>433</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>434</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>435</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>436</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>437</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>438</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>439</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>440</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>441</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>442</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>443</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>444</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>445</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>446</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>447</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>448</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>449</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>450</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>451</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>452</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>453</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>454</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>455</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>456</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>457</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>458</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>459</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>460</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>461</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>462</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>463</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>464</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>465</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>466</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>467</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>468</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>469</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>470</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>471</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>472</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>473</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>474</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>475</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>476</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>477</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>478</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>479</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>480</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>481</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>482</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>483</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>484</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>485</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>486</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>487</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>488</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>489</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>490</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>491</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>492</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>493</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>494</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>495</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>496</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>497</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>498</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>499</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>500</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>501</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>502</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>503</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>504</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>505</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>506</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>507</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>508</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>509</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>510</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>511</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>512</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>513</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>514</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>515</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>516</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>517</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>518</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>519</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>520</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>521</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>522</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>523</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>524</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>525</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>526</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>527</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>528</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>529</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>530</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>531</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>532</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>533</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>534</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>535</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>536</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>537</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>538</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>539</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>540</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>541</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>542</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>543</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>544</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>545</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>546</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>547</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>548</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>549</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>550</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>551</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>552</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>553</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>554</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>555</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>556</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>557</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>558</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>559</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>560</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>561</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>562</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>563</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>564</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>565</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>566</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>567</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>568</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>569</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>570</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>571</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>572</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>573</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>574</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>575</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>576</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>577</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>578</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>579</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>580</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>581</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>582</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>583</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>584</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>585</v>
       </c>
@@ -7742,7 +7741,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>586</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>587</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>588</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>589</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>590</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>591</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>592</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>593</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>594</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>595</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>596</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>597</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>598</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>599</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>600</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>601</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>602</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>603</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>604</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>605</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>606</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>607</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>608</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>609</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>610</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>611</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>612</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>613</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>614</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>615</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>616</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>617</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>618</v>
       </c>
@@ -8006,7 +8005,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>619</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>620</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>621</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>622</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>623</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>624</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>625</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>626</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>627</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>628</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>629</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>630</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>631</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>632</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>633</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>634</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>635</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>636</v>
       </c>
@@ -8150,7 +8149,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>637</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>638</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>639</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>640</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>641</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>642</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>643</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>644</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>645</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>646</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>647</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>648</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>649</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>650</v>
       </c>
@@ -8262,7 +8261,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>651</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>652</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>653</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>654</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>655</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>656</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>657</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>658</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>659</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>660</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>661</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>662</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>663</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>664</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>665</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>666</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>667</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>668</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>669</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>670</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>671</v>
       </c>
@@ -8430,7 +8429,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>672</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>673</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>674</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>675</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>676</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>677</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>678</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>679</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>680</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>681</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>682</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>683</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>684</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>685</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>686</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>687</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>688</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>689</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>690</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>691</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>692</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>693</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>694</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>695</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>696</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>697</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>698</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>699</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>700</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>701</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>702</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>703</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>704</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>705</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>706</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>707</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>708</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>709</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>710</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>711</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>712</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>713</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>714</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>715</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>716</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>717</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>718</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>719</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>720</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>721</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>722</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>723</v>
       </c>
@@ -8846,7 +8845,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>724</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>725</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>726</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>727</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>728</v>
       </c>
@@ -8886,7 +8885,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>729</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>730</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>731</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>732</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>733</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>734</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>735</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>736</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>737</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>738</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>739</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>740</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>741</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>742</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>743</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>744</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>745</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>746</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>747</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>748</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>749</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>750</v>
       </c>
@@ -9062,7 +9061,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>751</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>752</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>753</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>754</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>755</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>756</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>757</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>758</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>759</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>760</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>761</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>762</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>763</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>764</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>765</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>766</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>767</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>768</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>769</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>770</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>771</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>772</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>773</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>774</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>775</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>776</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>777</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>778</v>
       </c>
@@ -9286,7 +9285,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>779</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>780</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>781</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>782</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>783</v>
       </c>
@@ -9326,7 +9325,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>784</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>785</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>786</v>
       </c>
@@ -9350,7 +9349,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>787</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>788</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
         <v>789</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>790</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>791</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>792</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>793</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>794</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>795</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>796</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>797</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>798</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>799</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>800</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>801</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>802</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>803</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>804</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>805</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>806</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>807</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>808</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>809</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>810</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>811</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>812</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>813</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>814</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>815</v>
       </c>
@@ -9582,7 +9581,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>816</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>817</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>818</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>819</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>820</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>821</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>822</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>823</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>824</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>825</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>826</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>827</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>828</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>829</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>830</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>831</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>832</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>833</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>834</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>835</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>836</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>837</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>838</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>839</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>840</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>841</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>842</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>843</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>844</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>845</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>846</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>847</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>848</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>849</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>850</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>851</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>852</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>853</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>854</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>855</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>856</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>857</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>858</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>859</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>860</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>861</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>862</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>863</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>864</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>865</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>866</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>867</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>868</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>869</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>870</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>871</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>872</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>873</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>874</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>875</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>876</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>877</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>878</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>879</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>880</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>881</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>882</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>883</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>884</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>885</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>886</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>887</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>888</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>889</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>890</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>891</v>
       </c>
@@ -10190,7 +10189,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>892</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>893</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>894</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>895</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>896</v>
       </c>
@@ -10231,8 +10230,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A148" xr:uid="{34E7C80D-BA10-4102-83D6-46EF4B421C28}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A148">
+  <autoFilter ref="A1:A148">
+    <sortState ref="A2:A148">
       <sortCondition ref="A1:A148"/>
     </sortState>
   </autoFilter>
@@ -10242,6 +10241,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B867E9D7F32E45489B1C7C69979B644D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="772cbc66b4e03ebe4a6feb88bfb7f7cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7321bc-394f-4183-b398-e3bd3cc6b739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c284b7c3d10beb7fe0aa7c1c5a4308f" ns2:_="">
     <xsd:import namespace="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
@@ -10405,15 +10413,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10421,6 +10420,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B6DE4C-4660-48BC-979E-EA749B8DD2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA35EC90-91D6-4002-994C-DDFD84E8D3A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10434,14 +10441,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B6DE4C-4660-48BC-979E-EA749B8DD2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
